--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2215469.05106977</v>
+        <v>2212535.850307013</v>
       </c>
     </row>
     <row r="7">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="F3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C3" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -814,20 +814,20 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="F4" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.46326292246988</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="G8" t="n">
         <v>14.14993519808116</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12.46326292246988</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>12.46326292246988</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14.14993519808116</v>
       </c>
       <c r="H9" t="n">
         <v>14.14993519808116</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,52 +1288,52 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
+        <v>12.46326292246988</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12.46326292246988</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>409.9104575792404</v>
       </c>
       <c r="H11" t="n">
-        <v>284.2511152222861</v>
+        <v>151.8992790595995</v>
       </c>
       <c r="I11" t="n">
-        <v>2.590017341827405</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>86.14349054704599</v>
       </c>
       <c r="T11" t="n">
-        <v>64.5492906402385</v>
+        <v>199.4911441447525</v>
       </c>
       <c r="U11" t="n">
         <v>250.9142705129649</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5721882150831</v>
       </c>
       <c r="H13" t="n">
         <v>140.7219203417902</v>
@@ -1582,13 +1582,13 @@
         <v>217.610754542949</v>
       </c>
       <c r="U13" t="n">
-        <v>112.8358063426263</v>
+        <v>286.187095294125</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>96.21499418822157</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.5254960478404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>274.5242095790248</v>
       </c>
       <c r="G14" t="n">
         <v>409.9104575792404</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>86.14349054704599</v>
       </c>
       <c r="T14" t="n">
         <v>199.4911441447525</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5721882150831</v>
+        <v>49.07207745455464</v>
       </c>
       <c r="H16" t="n">
-        <v>101.6604907030943</v>
+        <v>140.7219203417902</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.8636651110522</v>
       </c>
       <c r="T16" t="n">
-        <v>217.610754542949</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.187095294125</v>
@@ -1859,10 +1859,10 @@
         <v>409.9104575792404</v>
       </c>
       <c r="H17" t="n">
-        <v>284.2511152222861</v>
+        <v>149.3092617177721</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.590017341827433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>86.14349054704601</v>
       </c>
       <c r="T17" t="n">
-        <v>153.2827985291128</v>
+        <v>199.4911441447525</v>
       </c>
       <c r="U17" t="n">
         <v>250.9142705129649</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>77.04812212639345</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5721882150831</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.7219203417902</v>
       </c>
       <c r="I19" t="n">
         <v>82.71082854283286</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.53574596684061</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.8636651110522</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.610754542949</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>176.1235715824575</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>284.2511152222861</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.590017341827433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>153.2827985291128</v>
+        <v>150.6927811872838</v>
       </c>
       <c r="U20" t="n">
         <v>250.9142705129649</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>74.26648950551507</v>
+        <v>96.21499418822117</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.7219203417902</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>82.71082854283286</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>68.53574596684061</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.8636651110522</v>
       </c>
       <c r="T22" t="n">
         <v>217.610754542949</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.729505493042338</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2533,7 +2533,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>51.52148311323997</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>103.8240095422218</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2767,7 +2767,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3582324997887</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>6.6656849558957</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>183.3984347304212</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>141.4740238230462</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.32106446352842</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>89.534082237451</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223797</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>356.5845196044197</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8432760127576</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3560,7 +3560,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4607323328451</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>136.5069655920684</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>141.4740238230458</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>359.5517498754658</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>34.32106446352842</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>81.37259901119256</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.321935050245</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.32106446352842</v>
+        <v>34.32106446352753</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>159.017773750659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>79.40345404838537</v>
       </c>
     </row>
   </sheetData>
@@ -4331,22 +4331,22 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K2" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M2" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N2" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O2" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q2" t="n">
         <v>27.50418296684575</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H3" t="n">
         <v>0.5500836593369149</v>
@@ -4419,10 +4419,10 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N3" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
         <v>27.50418296684575</v>
@@ -4434,25 +4434,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J4" t="n">
         <v>0.5500836593369149</v>
@@ -4495,13 +4495,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
@@ -4528,10 +4528,10 @@
         <v>20.55868221764227</v>
       </c>
       <c r="X4" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="5">
@@ -4571,19 +4571,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O5" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="P5" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="P5" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K6" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="L6" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
         <v>13.8896123982571</v>
@@ -4659,10 +4659,10 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
@@ -4671,25 +4671,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D7" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="C7" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.495584408540386</v>
-      </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
@@ -4729,46 +4729,46 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M7" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="C8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="D8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="E8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="F8" t="n">
-        <v>29.71772248873773</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="G8" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="H8" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="I8" t="n">
         <v>1.131994815846493</v>
       </c>
       <c r="J8" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="K8" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5744332540236</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="M8" t="n">
-        <v>28.58286910012395</v>
+        <v>29.14886650804719</v>
       </c>
       <c r="N8" t="n">
         <v>42.5913049462243</v>
@@ -4832,22 +4832,22 @@
         <v>42.30687695587903</v>
       </c>
       <c r="T8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="U8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="V8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="W8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="X8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="C9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="D9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="E9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="F9" t="n">
-        <v>44.01058632518335</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="G9" t="n">
         <v>29.71772248873773</v>
@@ -4881,10 +4881,10 @@
         <v>1.131994815846493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.14043066194684</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="K9" t="n">
-        <v>15.14043066194684</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="L9" t="n">
         <v>15.14043066194684</v>
@@ -4920,13 +4920,13 @@
         <v>56.59974079232465</v>
       </c>
       <c r="W9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="X9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="Y9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
     </row>
     <row r="10">
@@ -4939,40 +4939,40 @@
         <v>42.30687695587903</v>
       </c>
       <c r="C10" t="n">
-        <v>28.01401311943341</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="D10" t="n">
-        <v>28.01401311943341</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="E10" t="n">
         <v>28.01401311943341</v>
       </c>
       <c r="F10" t="n">
-        <v>28.01401311943341</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="G10" t="n">
-        <v>13.72114928298779</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="H10" t="n">
-        <v>1.131994815846493</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="I10" t="n">
-        <v>1.131994815846493</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="J10" t="n">
         <v>1.131994815846493</v>
       </c>
       <c r="K10" t="n">
-        <v>15.14043066194684</v>
+        <v>14.5744332540236</v>
       </c>
       <c r="L10" t="n">
-        <v>29.14886650804719</v>
+        <v>28.58286910012395</v>
       </c>
       <c r="M10" t="n">
         <v>42.5913049462243</v>
       </c>
       <c r="N10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="O10" t="n">
         <v>56.59974079232465</v>
@@ -4981,31 +4981,31 @@
         <v>56.59974079232465</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="R10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="S10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="T10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="U10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="V10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="W10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="X10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.965164447262</v>
+        <v>2182.66026191745</v>
       </c>
       <c r="C11" t="n">
-        <v>1950.002647506851</v>
+        <v>1813.697744977038</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.7369489001</v>
+        <v>1455.432046370288</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.948696301856</v>
+        <v>1069.643793772044</v>
       </c>
       <c r="F11" t="n">
-        <v>794.9627915122483</v>
+        <v>658.6578889824361</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9118242604903</v>
+        <v>244.6069217306781</v>
       </c>
       <c r="H11" t="n">
-        <v>93.78948565212043</v>
+        <v>91.17330651896144</v>
       </c>
       <c r="I11" t="n">
         <v>91.17330651896144</v>
@@ -5045,7 +5045,7 @@
         <v>826.1943441266619</v>
       </c>
       <c r="L11" t="n">
-        <v>1435.218387130232</v>
+        <v>1435.218387130233</v>
       </c>
       <c r="M11" t="n">
         <v>2144.544418785957</v>
@@ -5069,22 +5069,22 @@
         <v>4471.651699132874</v>
       </c>
       <c r="T11" t="n">
-        <v>4406.450395455865</v>
+        <v>4270.145492926053</v>
       </c>
       <c r="U11" t="n">
-        <v>4153.001637361961</v>
+        <v>4016.696734832149</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.93875001839</v>
+        <v>3685.633847488578</v>
       </c>
       <c r="W11" t="n">
-        <v>3469.170094748276</v>
+        <v>3332.865192218464</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.704336487196</v>
+        <v>2959.399433957384</v>
       </c>
       <c r="Y11" t="n">
-        <v>2705.565004511384</v>
+        <v>2569.260101981572</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5127,19 @@
         <v>1043.227289276468</v>
       </c>
       <c r="M12" t="n">
-        <v>1043.227289276468</v>
+        <v>1626.228999747395</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.067965163576</v>
+        <v>2239.069675634502</v>
       </c>
       <c r="O12" t="n">
-        <v>2194.477660257265</v>
+        <v>2552.537395898062</v>
       </c>
       <c r="P12" t="n">
-        <v>2293.4018652291</v>
+        <v>2552.537395898062</v>
       </c>
       <c r="Q12" t="n">
-        <v>2519.420636174567</v>
+        <v>2552.537395898062</v>
       </c>
       <c r="R12" t="n">
         <v>2552.537395898062</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.9157741972072</v>
+        <v>653.0437693455615</v>
       </c>
       <c r="C13" t="n">
-        <v>466.9795912693003</v>
+        <v>484.1075864176545</v>
       </c>
       <c r="D13" t="n">
-        <v>316.8629518569646</v>
+        <v>484.1075864176545</v>
       </c>
       <c r="E13" t="n">
-        <v>316.8629518569646</v>
+        <v>484.1075864176545</v>
       </c>
       <c r="F13" t="n">
-        <v>316.8629518569646</v>
+        <v>484.1075864176545</v>
       </c>
       <c r="G13" t="n">
         <v>316.8629518569646</v>
@@ -5230,19 +5230,19 @@
         <v>1924.423589274091</v>
       </c>
       <c r="U13" t="n">
-        <v>1810.448027311842</v>
+        <v>1635.345715239621</v>
       </c>
       <c r="V13" t="n">
-        <v>1555.763539105955</v>
+        <v>1380.661227033734</v>
       </c>
       <c r="W13" t="n">
-        <v>1266.346369068994</v>
+        <v>1283.474364217349</v>
       </c>
       <c r="X13" t="n">
-        <v>1038.356818170977</v>
+        <v>1055.484813319331</v>
       </c>
       <c r="Y13" t="n">
-        <v>817.5642390274469</v>
+        <v>834.6922341758012</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2316.348985314103</v>
+        <v>2182.66026191745</v>
       </c>
       <c r="C14" t="n">
-        <v>1947.386468373692</v>
+        <v>1813.697744977038</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.120769766941</v>
+        <v>1455.432046370288</v>
       </c>
       <c r="E14" t="n">
-        <v>1203.332517168697</v>
+        <v>1069.643793772044</v>
       </c>
       <c r="F14" t="n">
         <v>792.3466123790893</v>
@@ -5303,25 +5303,25 @@
         <v>4558.665325948072</v>
       </c>
       <c r="S14" t="n">
-        <v>4558.665325948072</v>
+        <v>4471.651699132874</v>
       </c>
       <c r="T14" t="n">
-        <v>4357.159119741251</v>
+        <v>4270.145492926053</v>
       </c>
       <c r="U14" t="n">
-        <v>4103.710361647347</v>
+        <v>4016.696734832149</v>
       </c>
       <c r="V14" t="n">
-        <v>3772.647474303776</v>
+        <v>3685.633847488578</v>
       </c>
       <c r="W14" t="n">
-        <v>3419.878819033662</v>
+        <v>3332.865192218464</v>
       </c>
       <c r="X14" t="n">
-        <v>3046.413060772582</v>
+        <v>2959.399433957384</v>
       </c>
       <c r="Y14" t="n">
-        <v>2656.27372879677</v>
+        <v>2569.260101981572</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>235.459205465011</v>
       </c>
       <c r="K15" t="n">
-        <v>560.2216130085933</v>
+        <v>335.2796381784646</v>
       </c>
       <c r="L15" t="n">
-        <v>1043.227289276468</v>
+        <v>818.2853144463396</v>
       </c>
       <c r="M15" t="n">
-        <v>1626.228999747395</v>
+        <v>1401.287024917266</v>
       </c>
       <c r="N15" t="n">
-        <v>2239.069675634502</v>
+        <v>2014.127700804373</v>
       </c>
       <c r="O15" t="n">
         <v>2552.537395898062</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>530.0414883541182</v>
+        <v>749.850331326794</v>
       </c>
       <c r="C16" t="n">
-        <v>361.1053054262113</v>
+        <v>580.9141483988872</v>
       </c>
       <c r="D16" t="n">
-        <v>361.1053054262113</v>
+        <v>430.7975089865514</v>
       </c>
       <c r="E16" t="n">
-        <v>361.1053054262113</v>
+        <v>282.8844154041583</v>
       </c>
       <c r="F16" t="n">
-        <v>361.1053054262113</v>
+        <v>282.8844154041583</v>
       </c>
       <c r="G16" t="n">
-        <v>193.8606708655213</v>
+        <v>233.3166603995576</v>
       </c>
       <c r="H16" t="n">
         <v>91.17330651896144</v>
@@ -5464,22 +5464,22 @@
         <v>2213.460458475899</v>
       </c>
       <c r="T16" t="n">
-        <v>1993.651615503223</v>
+        <v>2213.460458475899</v>
       </c>
       <c r="U16" t="n">
-        <v>1704.573741468753</v>
+        <v>1924.382584441429</v>
       </c>
       <c r="V16" t="n">
-        <v>1449.889253262866</v>
+        <v>1669.698096235542</v>
       </c>
       <c r="W16" t="n">
-        <v>1160.472083225905</v>
+        <v>1380.280926198581</v>
       </c>
       <c r="X16" t="n">
-        <v>932.4825323278881</v>
+        <v>1152.291375300564</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.6899531843579</v>
+        <v>931.4987961570338</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2316.348985314103</v>
+        <v>2182.66026191745</v>
       </c>
       <c r="C17" t="n">
-        <v>1947.386468373692</v>
+        <v>1813.697744977038</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.120769766941</v>
+        <v>1455.432046370288</v>
       </c>
       <c r="E17" t="n">
-        <v>1203.332517168697</v>
+        <v>1069.643793772044</v>
       </c>
       <c r="F17" t="n">
-        <v>792.3466123790893</v>
+        <v>658.6578889824361</v>
       </c>
       <c r="G17" t="n">
-        <v>378.2956451273313</v>
+        <v>244.6069217306781</v>
       </c>
       <c r="H17" t="n">
-        <v>91.17330651896144</v>
+        <v>93.78948565212046</v>
       </c>
       <c r="I17" t="n">
         <v>91.17330651896144</v>
@@ -5516,22 +5516,22 @@
         <v>365.0242500545892</v>
       </c>
       <c r="K17" t="n">
-        <v>826.1943441266621</v>
+        <v>826.1943441266617</v>
       </c>
       <c r="L17" t="n">
-        <v>1435.218387130233</v>
+        <v>1435.218387130232</v>
       </c>
       <c r="M17" t="n">
         <v>2144.544418785957</v>
       </c>
       <c r="N17" t="n">
-        <v>2869.961895590239</v>
+        <v>2869.961895590238</v>
       </c>
       <c r="O17" t="n">
-        <v>3541.617787271249</v>
+        <v>3541.617787271248</v>
       </c>
       <c r="P17" t="n">
-        <v>4080.359550653787</v>
+        <v>4080.359550653786</v>
       </c>
       <c r="Q17" t="n">
         <v>4436.759431906152</v>
@@ -5540,25 +5540,25 @@
         <v>4558.665325948072</v>
       </c>
       <c r="S17" t="n">
-        <v>4558.665325948072</v>
+        <v>4471.651699132874</v>
       </c>
       <c r="T17" t="n">
-        <v>4403.834216322705</v>
+        <v>4270.145492926053</v>
       </c>
       <c r="U17" t="n">
-        <v>4150.385458228801</v>
+        <v>4016.696734832149</v>
       </c>
       <c r="V17" t="n">
-        <v>3819.322570885231</v>
+        <v>3685.633847488578</v>
       </c>
       <c r="W17" t="n">
-        <v>3466.553915615117</v>
+        <v>3332.865192218464</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.088157354037</v>
+        <v>2959.399433957384</v>
       </c>
       <c r="Y17" t="n">
-        <v>2702.948825378225</v>
+        <v>2569.260101981572</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>91.17330651896144</v>
       </c>
       <c r="J18" t="n">
-        <v>91.17330651896144</v>
+        <v>235.4592054650109</v>
       </c>
       <c r="K18" t="n">
-        <v>335.2796381784649</v>
+        <v>560.2216130085931</v>
       </c>
       <c r="L18" t="n">
-        <v>818.2853144463398</v>
+        <v>1043.227289276468</v>
       </c>
       <c r="M18" t="n">
-        <v>1401.287024917266</v>
+        <v>1626.228999747394</v>
       </c>
       <c r="N18" t="n">
-        <v>2014.127700804373</v>
+        <v>2239.069675634501</v>
       </c>
       <c r="O18" t="n">
         <v>2552.537395898062</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>510.9004154649652</v>
+        <v>713.7421601834633</v>
       </c>
       <c r="C19" t="n">
-        <v>341.9642325370584</v>
+        <v>544.8059772555564</v>
       </c>
       <c r="D19" t="n">
-        <v>341.9642325370584</v>
+        <v>394.6893378432206</v>
       </c>
       <c r="E19" t="n">
-        <v>341.9642325370584</v>
+        <v>394.6893378432206</v>
       </c>
       <c r="F19" t="n">
-        <v>341.9642325370584</v>
+        <v>316.8629518569646</v>
       </c>
       <c r="G19" t="n">
-        <v>174.7195979763684</v>
+        <v>316.8629518569646</v>
       </c>
       <c r="H19" t="n">
         <v>174.7195979763684</v>
@@ -5695,28 +5695,28 @@
         <v>2397.161130305244</v>
       </c>
       <c r="R19" t="n">
-        <v>2327.933104076112</v>
+        <v>2397.161130305244</v>
       </c>
       <c r="S19" t="n">
-        <v>2144.232432246766</v>
+        <v>2397.161130305244</v>
       </c>
       <c r="T19" t="n">
-        <v>1924.42358927409</v>
+        <v>2177.352287332568</v>
       </c>
       <c r="U19" t="n">
-        <v>1635.345715239621</v>
+        <v>1888.274413298098</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.661227033734</v>
+        <v>1633.589925092211</v>
       </c>
       <c r="W19" t="n">
-        <v>1091.244056996773</v>
+        <v>1344.17275505525</v>
       </c>
       <c r="X19" t="n">
-        <v>913.3414594387351</v>
+        <v>1116.183204157233</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.548880295205</v>
+        <v>895.390625013703</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2316.348985314103</v>
+        <v>2318.965164447262</v>
       </c>
       <c r="C20" t="n">
-        <v>1947.386468373692</v>
+        <v>1950.002647506851</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.120769766941</v>
+        <v>1591.7369489001</v>
       </c>
       <c r="E20" t="n">
-        <v>1203.332517168697</v>
+        <v>1205.948696301856</v>
       </c>
       <c r="F20" t="n">
-        <v>792.3466123790893</v>
+        <v>794.9627915122483</v>
       </c>
       <c r="G20" t="n">
-        <v>378.2956451273313</v>
+        <v>380.9118242604903</v>
       </c>
       <c r="H20" t="n">
-        <v>91.17330651896144</v>
+        <v>93.78948565212045</v>
       </c>
       <c r="I20" t="n">
-        <v>91.17330651896144</v>
+        <v>91.17330651896143</v>
       </c>
       <c r="J20" t="n">
-        <v>365.0242500545892</v>
+        <v>365.0242500545891</v>
       </c>
       <c r="K20" t="n">
-        <v>826.1943441266619</v>
+        <v>826.1943441266617</v>
       </c>
       <c r="L20" t="n">
         <v>1435.218387130232</v>
       </c>
       <c r="M20" t="n">
-        <v>2144.544418785957</v>
+        <v>2144.544418785956</v>
       </c>
       <c r="N20" t="n">
-        <v>2869.961895590239</v>
+        <v>2869.961895590238</v>
       </c>
       <c r="O20" t="n">
-        <v>3541.617787271249</v>
+        <v>3541.617787271248</v>
       </c>
       <c r="P20" t="n">
-        <v>4080.359550653787</v>
+        <v>4080.359550653786</v>
       </c>
       <c r="Q20" t="n">
-        <v>4436.759431906152</v>
+        <v>4436.759431906151</v>
       </c>
       <c r="R20" t="n">
-        <v>4558.665325948072</v>
+        <v>4558.665325948071</v>
       </c>
       <c r="S20" t="n">
-        <v>4558.665325948072</v>
+        <v>4558.665325948071</v>
       </c>
       <c r="T20" t="n">
-        <v>4403.834216322705</v>
+        <v>4406.450395455865</v>
       </c>
       <c r="U20" t="n">
-        <v>4150.385458228801</v>
+        <v>4153.001637361961</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.322570885231</v>
+        <v>3821.93875001839</v>
       </c>
       <c r="W20" t="n">
-        <v>3466.553915615117</v>
+        <v>3469.170094748276</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.088157354037</v>
+        <v>3095.704336487196</v>
       </c>
       <c r="Y20" t="n">
-        <v>2702.948825378225</v>
+        <v>2705.565004511384</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>176.5867226382666</v>
       </c>
       <c r="H21" t="n">
-        <v>91.36326890392156</v>
+        <v>91.36326890392155</v>
       </c>
       <c r="I21" t="n">
-        <v>91.17330651896144</v>
+        <v>91.17330651896143</v>
       </c>
       <c r="J21" t="n">
-        <v>91.17330651896144</v>
+        <v>235.4592054650109</v>
       </c>
       <c r="K21" t="n">
-        <v>91.17330651896144</v>
+        <v>560.2216130085931</v>
       </c>
       <c r="L21" t="n">
-        <v>574.1789827868363</v>
+        <v>1043.227289276468</v>
       </c>
       <c r="M21" t="n">
-        <v>1157.180693257762</v>
+        <v>1626.228999747394</v>
       </c>
       <c r="N21" t="n">
-        <v>1770.02136914487</v>
+        <v>2239.069675634501</v>
       </c>
       <c r="O21" t="n">
-        <v>2308.431064238559</v>
+        <v>2552.537395898062</v>
       </c>
       <c r="P21" t="n">
         <v>2552.537395898062</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>644.5141339543313</v>
+        <v>750.2306321619465</v>
       </c>
       <c r="C22" t="n">
-        <v>475.5779510264244</v>
+        <v>581.2944492340396</v>
       </c>
       <c r="D22" t="n">
-        <v>475.5779510264244</v>
+        <v>581.2944492340396</v>
       </c>
       <c r="E22" t="n">
-        <v>400.5612949602476</v>
+        <v>484.1075864176545</v>
       </c>
       <c r="F22" t="n">
-        <v>400.5612949602476</v>
+        <v>484.1075864176545</v>
       </c>
       <c r="G22" t="n">
-        <v>233.3166603995576</v>
+        <v>316.8629518569646</v>
       </c>
       <c r="H22" t="n">
-        <v>91.17330651896144</v>
+        <v>174.7195979763684</v>
       </c>
       <c r="I22" t="n">
-        <v>91.17330651896144</v>
+        <v>91.17330651896143</v>
       </c>
       <c r="J22" t="n">
         <v>168.0461667017503</v>
@@ -5935,25 +5935,25 @@
         <v>2327.933104076112</v>
       </c>
       <c r="S22" t="n">
-        <v>2327.933104076112</v>
+        <v>2144.232432246766</v>
       </c>
       <c r="T22" t="n">
-        <v>2108.124261103436</v>
+        <v>1924.42358927409</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.046387068966</v>
+        <v>1635.345715239621</v>
       </c>
       <c r="V22" t="n">
-        <v>1564.361898863079</v>
+        <v>1380.661227033734</v>
       </c>
       <c r="W22" t="n">
-        <v>1274.944728826119</v>
+        <v>1380.661227033734</v>
       </c>
       <c r="X22" t="n">
-        <v>1046.955177928101</v>
+        <v>1152.671676135716</v>
       </c>
       <c r="Y22" t="n">
-        <v>826.1625987845711</v>
+        <v>931.8790969921862</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5981,34 +5981,34 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6020,19 +6020,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.203741210181</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E25" t="n">
-        <v>318.3519507135898</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F25" t="n">
-        <v>318.3519507135898</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6181,16 +6181,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1617.586065927649</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1328.168895890688</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>1100.179344992671</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>879.3867658491409</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6224,28 +6224,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6257,13 +6257,13 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
         <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
         <v>3095.000365871304</v>
@@ -6300,31 +6300,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>94.88738072612961</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>94.88738072612961</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>107.3505653988756</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196510031</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.8714428665047</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C28" t="n">
-        <v>402.9352599385978</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D28" t="n">
-        <v>402.9352599385978</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="E28" t="n">
         <v>402.9352599385978</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
         <v>1949.298676890958</v>
@@ -6449,7 +6449,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127629</v>
@@ -6461,28 +6461,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6494,19 +6494,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>107.3505653988756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>107.3505653988756</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>107.3505653988756</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>699.3689196510031</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.0911747218001</v>
+        <v>957.5492919979874</v>
       </c>
       <c r="C31" t="n">
-        <v>613.1549917938933</v>
+        <v>788.6131090700806</v>
       </c>
       <c r="D31" t="n">
-        <v>613.1549917938933</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="E31" t="n">
-        <v>465.2418982115001</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F31" t="n">
-        <v>318.3519507135898</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
         <v>176.4792337520202</v>
@@ -6631,40 +6631,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946051</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="S31" t="n">
-        <v>2361.553154294196</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T31" t="n">
-        <v>2141.874372008578</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.623427836435</v>
+        <v>1957.166095389348</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.938939630548</v>
+        <v>1702.481607183461</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.521769593587</v>
+        <v>1413.0644371465</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.53221869557</v>
+        <v>1185.074886248483</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.7396395520399</v>
+        <v>964.2823071049528</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C32" t="n">
         <v>1949.298676890958</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F32" t="n">
         <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6734,16 +6734,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W32" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L33" t="n">
-        <v>107.3505653988756</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>699.3689196510031</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O33" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D34" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6886,22 +6886,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128753</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L35" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S35" t="n">
         <v>4605.913419421674</v>
@@ -7002,40 +7002,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J36" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K36" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L36" t="n">
-        <v>423.3203657894393</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M36" t="n">
-        <v>698.3321947254767</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.428158124813</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O36" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7084,28 +7084,28 @@
         <v>325.1228070941663</v>
       </c>
       <c r="G37" t="n">
-        <v>234.6843401876502</v>
+        <v>157.9086122687452</v>
       </c>
       <c r="H37" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J37" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K37" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L37" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M37" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N37" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O37" t="n">
         <v>2020.132206020528</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C38" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D38" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E38" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F38" t="n">
         <v>793.22209597083</v>
@@ -7166,13 +7166,13 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K38" t="n">
         <v>841.9378825128761</v>
@@ -7181,43 +7181,43 @@
         <v>1461.457663018651</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O38" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S38" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T38" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U38" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V38" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W38" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X38" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y38" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G39" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I39" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J39" t="n">
-        <v>106.3138404733492</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>106.3138404733492</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>106.3138404733492</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>698.3321947254767</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.428158124813</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>570.8347179409782</v>
+        <v>713.7377723076911</v>
       </c>
       <c r="C40" t="n">
-        <v>401.8985350130713</v>
+        <v>544.8015893797842</v>
       </c>
       <c r="D40" t="n">
-        <v>401.8985350130713</v>
+        <v>544.8015893797842</v>
       </c>
       <c r="E40" t="n">
-        <v>401.8985350130713</v>
+        <v>544.8015893797842</v>
       </c>
       <c r="F40" t="n">
-        <v>401.8985350130713</v>
+        <v>397.9116418818738</v>
       </c>
       <c r="G40" t="n">
-        <v>234.6843401876502</v>
+        <v>230.6974470564527</v>
       </c>
       <c r="H40" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J40" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K40" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L40" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M40" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N40" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O40" t="n">
         <v>2020.132206020528</v>
@@ -7360,22 +7360,22 @@
         <v>2177.346239107599</v>
       </c>
       <c r="T40" t="n">
-        <v>2034.443184740886</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="U40" t="n">
-        <v>1745.366971055613</v>
+        <v>1888.270025422326</v>
       </c>
       <c r="V40" t="n">
-        <v>1490.682482849726</v>
+        <v>1633.585537216439</v>
       </c>
       <c r="W40" t="n">
-        <v>1201.265312812765</v>
+        <v>1344.168367179478</v>
       </c>
       <c r="X40" t="n">
-        <v>973.275761914748</v>
+        <v>1116.178816281461</v>
       </c>
       <c r="Y40" t="n">
-        <v>752.4831827712179</v>
+        <v>895.3862371379308</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C41" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D41" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F41" t="n">
-        <v>742.4225746200302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G41" t="n">
         <v>379.2389888872365</v>
@@ -7430,31 +7430,31 @@
         <v>4150.915188021279</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R41" t="n">
         <v>4640.581161304026</v>
       </c>
       <c r="S41" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T41" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U41" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V41" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W41" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y41" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I42" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J42" t="n">
-        <v>106.3138404733492</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>106.3138404733492</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L42" t="n">
-        <v>106.3138404733492</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M42" t="n">
-        <v>698.3321947254767</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124813</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>494.0589900220732</v>
+        <v>1036.281605555077</v>
       </c>
       <c r="C43" t="n">
-        <v>325.1228070941663</v>
+        <v>867.3454226271701</v>
       </c>
       <c r="D43" t="n">
-        <v>175.0061676818306</v>
+        <v>717.2287832148344</v>
       </c>
       <c r="E43" t="n">
-        <v>92.81162322608053</v>
+        <v>569.3156896324413</v>
       </c>
       <c r="F43" t="n">
-        <v>92.81162322608053</v>
+        <v>422.4257421345309</v>
       </c>
       <c r="G43" t="n">
-        <v>92.81162322608053</v>
+        <v>255.2115473091097</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608053</v>
+        <v>113.3388303475401</v>
       </c>
       <c r="I43" t="n">
         <v>92.81162322608053</v>
@@ -7591,28 +7591,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.346239107599</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T43" t="n">
-        <v>1957.667456821981</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="U43" t="n">
-        <v>1668.591243136708</v>
+        <v>1956.129370463825</v>
       </c>
       <c r="V43" t="n">
-        <v>1413.906754930821</v>
+        <v>1956.129370463825</v>
       </c>
       <c r="W43" t="n">
-        <v>1124.48958489386</v>
+        <v>1666.712200426864</v>
       </c>
       <c r="X43" t="n">
-        <v>896.5000339958431</v>
+        <v>1438.722649528847</v>
       </c>
       <c r="Y43" t="n">
-        <v>675.7074548523129</v>
+        <v>1217.930070385317</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>793.22209597083</v>
       </c>
       <c r="G44" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S44" t="n">
         <v>4605.913419421674</v>
@@ -7719,34 +7719,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060311</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J45" t="n">
-        <v>106.3138404733492</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K45" t="n">
-        <v>106.3138404733492</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L45" t="n">
-        <v>106.3138404733492</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3321947254767</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124813</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>873.8816814720478</v>
+        <v>634.6460600258201</v>
       </c>
       <c r="C46" t="n">
-        <v>704.9454985441409</v>
+        <v>634.6460600258201</v>
       </c>
       <c r="D46" t="n">
-        <v>554.8288591318052</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="E46" t="n">
-        <v>406.9157655494121</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F46" t="n">
-        <v>260.0258180515017</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G46" t="n">
-        <v>92.81162322608053</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H46" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J46" t="n">
         <v>171.7937461156344</v>
@@ -7828,28 +7828,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R46" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S46" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T46" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U46" t="n">
-        <v>1919.620778439276</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.936290233389</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W46" t="n">
-        <v>1504.312276343835</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X46" t="n">
-        <v>1276.322725445817</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y46" t="n">
-        <v>1055.530146302287</v>
+        <v>816.2945248560599</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>151.65428575073</v>
       </c>
       <c r="K2" t="n">
-        <v>172.6100690968671</v>
+        <v>165.7340233551557</v>
       </c>
       <c r="L2" t="n">
         <v>168.3332042496898</v>
@@ -7988,16 +7988,16 @@
         <v>155.313793312247</v>
       </c>
       <c r="N2" t="n">
-        <v>153.1665203597392</v>
+        <v>159.7647460714825</v>
       </c>
       <c r="O2" t="n">
-        <v>158.1007627405435</v>
+        <v>164.9768084822549</v>
       </c>
       <c r="P2" t="n">
-        <v>176.6608847674708</v>
+        <v>169.7848390257594</v>
       </c>
       <c r="Q2" t="n">
-        <v>182.7589089536086</v>
+        <v>183.0367289835768</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,19 +8061,19 @@
         <v>100.9222782029847</v>
       </c>
       <c r="L3" t="n">
-        <v>95.78805775705067</v>
+        <v>95.78805775705068</v>
       </c>
       <c r="M3" t="n">
         <v>84.20373222002493</v>
       </c>
       <c r="N3" t="n">
-        <v>78.47639338402404</v>
+        <v>78.75421341399218</v>
       </c>
       <c r="O3" t="n">
-        <v>88.19871845469135</v>
+        <v>94.79694416643464</v>
       </c>
       <c r="P3" t="n">
-        <v>97.19164277865914</v>
+        <v>90.31559703694771</v>
       </c>
       <c r="Q3" t="n">
         <v>110.7970155481158</v>
@@ -8143,16 +8143,16 @@
         <v>113.2634396035062</v>
       </c>
       <c r="M4" t="n">
-        <v>115.4776209618759</v>
+        <v>115.755440991844</v>
       </c>
       <c r="N4" t="n">
-        <v>105.2296374757172</v>
+        <v>104.9518174457491</v>
       </c>
       <c r="O4" t="n">
-        <v>118.2397783321437</v>
+        <v>111.3637325904322</v>
       </c>
       <c r="P4" t="n">
-        <v>114.5454282078686</v>
+        <v>121.4214739495801</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,22 +8219,22 @@
         <v>93.74452968173479</v>
       </c>
       <c r="L5" t="n">
-        <v>79.02387160133335</v>
+        <v>85.89991734304479</v>
       </c>
       <c r="M5" t="n">
-        <v>62.53817838656356</v>
+        <v>55.93995267482026</v>
       </c>
       <c r="N5" t="n">
-        <v>59.06075283035861</v>
+        <v>52.18470708864717</v>
       </c>
       <c r="O5" t="n">
         <v>69.62254571745751</v>
       </c>
       <c r="P5" t="n">
-        <v>95.27822759655393</v>
+        <v>95.00040756658579</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.0456969704258</v>
+        <v>121.9217427121372</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>76.62853846434811</v>
+        <v>83.50458420605955</v>
       </c>
       <c r="K6" t="n">
-        <v>58.90215579240102</v>
+        <v>58.62433576243288</v>
       </c>
       <c r="L6" t="n">
         <v>23.16507977264236</v>
       </c>
       <c r="M6" t="n">
-        <v>14.07838908699297</v>
+        <v>7.480163375249674</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>23.0300448070567</v>
+        <v>16.15399906534526</v>
       </c>
       <c r="P6" t="n">
         <v>32.49335815233935</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.14438013772387</v>
+        <v>79.02042587943531</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>84.1258367566534</v>
       </c>
       <c r="L7" t="n">
-        <v>75.52130560177798</v>
+        <v>75.24348557180983</v>
       </c>
       <c r="M7" t="n">
         <v>75.96165252469231</v>
       </c>
       <c r="N7" t="n">
-        <v>66.10423632485562</v>
+        <v>59.50601061311234</v>
       </c>
       <c r="O7" t="n">
         <v>75.48170376208013</v>
       </c>
       <c r="P7" t="n">
-        <v>83.84215373318403</v>
+        <v>90.71819947489547</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>83.20324886963371</v>
+        <v>97.35318406771488</v>
       </c>
       <c r="K8" t="n">
         <v>73.44907330703683</v>
       </c>
       <c r="L8" t="n">
-        <v>67.42378396612889</v>
+        <v>53.84556332150555</v>
       </c>
       <c r="M8" t="n">
-        <v>42.0741685709651</v>
+        <v>42.07416857096511</v>
       </c>
       <c r="N8" t="n">
-        <v>37.86559935695391</v>
+        <v>37.2938848034961</v>
       </c>
       <c r="O8" t="n">
         <v>35.86399002417318</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>82.71314644470175</v>
+        <v>68.56321124662058</v>
       </c>
       <c r="K9" t="n">
         <v>38.24118120917458</v>
       </c>
       <c r="L9" t="n">
-        <v>4.629541779345772</v>
+        <v>18.77947697742693</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>83.08471163136672</v>
+        <v>82.51299707790889</v>
       </c>
       <c r="L10" t="n">
-        <v>72.15483915295135</v>
+        <v>72.15483915295134</v>
       </c>
       <c r="M10" t="n">
-        <v>71.44506401355868</v>
+        <v>72.01677856701649</v>
       </c>
       <c r="N10" t="n">
-        <v>62.70393951596478</v>
+        <v>48.55400431788362</v>
       </c>
       <c r="O10" t="n">
-        <v>65.36575331485054</v>
+        <v>79.51568851293169</v>
       </c>
       <c r="P10" t="n">
         <v>75.18621054113731</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782909091</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909091</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.3126478290913</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>132.3518361626866</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.590017341827405</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>134.941853504514</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5721882150831</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>173.3512889514987</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>190.3080041483694</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.20834561564021</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>132.3518361626867</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.14349054704599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>116.5001107605284</v>
       </c>
       <c r="H16" t="n">
-        <v>39.06142963869593</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>82.71082854283284</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.610754542949</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>134.941853504514</v>
       </c>
       <c r="I17" t="n">
-        <v>2.590017341827433</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>86.14349054704601</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>46.20834561563973</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>68.37292589653779</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5721882150831</v>
       </c>
       <c r="H19" t="n">
-        <v>140.7219203417902</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>68.53574596684061</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.8636651110522</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>49.58608380657967</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.590017341827433</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>86.14349054704601</v>
       </c>
       <c r="T20" t="n">
-        <v>46.20834561563973</v>
+        <v>48.7983629574687</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>72.1674731410541</v>
+        <v>50.218968458348</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71082854283286</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.8636651110522</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>138.7044571535268</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>200.616160210588</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>42.60995310434738</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>8.827219048631719</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>173.1662952260416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>102.7870168179992</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.29152613729121</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>76.00797063971592</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>76.00797063971595</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>50.29152613729178</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>50.29152613728979</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.947024199885504</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>76.00797063971601</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>50.29152613729184</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>50.29152613729121</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>65.06136363537661</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>61.48264169416403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.29152613729121</v>
+        <v>50.2915261372921</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>127.505224585932</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.1811993037094</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803700.9301274308</v>
+        <v>803700.9301274306</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803700.9301274307</v>
+        <v>803700.9301274306</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803700.9301274309</v>
+        <v>803700.9301274306</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803700.9301274308</v>
+        <v>803700.9301274306</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811218.9871482035</v>
+        <v>811218.9871482038</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811218.9871482034</v>
+        <v>811218.9871482035</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811218.9871482035</v>
+        <v>811218.9871482037</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811218.9871482035</v>
+        <v>811218.9871482037</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615303.7644909144</v>
+        <v>615303.7644909142</v>
       </c>
       <c r="C2" t="n">
-        <v>615337.551016644</v>
+        <v>615337.5510166439</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
@@ -26323,37 +26323,37 @@
         <v>596371.2859629435</v>
       </c>
       <c r="F2" t="n">
-        <v>596371.2859629436</v>
+        <v>596371.2859629433</v>
       </c>
       <c r="G2" t="n">
-        <v>596371.2859629433</v>
+        <v>596371.2859629432</v>
       </c>
       <c r="H2" t="n">
         <v>596371.2859629433</v>
       </c>
       <c r="I2" t="n">
-        <v>605012.2328389188</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="J2" t="n">
-        <v>605012.2328389189</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="K2" t="n">
         <v>605012.232838919</v>
       </c>
       <c r="L2" t="n">
-        <v>605012.2328389189</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="M2" t="n">
+        <v>602009.8287285231</v>
+      </c>
+      <c r="N2" t="n">
         <v>602009.8287285228</v>
-      </c>
-      <c r="N2" t="n">
-        <v>602009.8287285229</v>
       </c>
       <c r="O2" t="n">
         <v>602009.8287285229</v>
       </c>
       <c r="P2" t="n">
-        <v>602009.8287285231</v>
+        <v>602009.8287285229</v>
       </c>
     </row>
     <row r="3">
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21471.37250078564</v>
+        <v>21471.37250078587</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044347</v>
+        <v>1799.076112044377</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1840.955956402068</v>
+        <v>1840.955956402128</v>
       </c>
       <c r="M3" t="n">
         <v>277253.7380415269</v>
@@ -26421,7 +26421,7 @@
         <v>362927.8785931708</v>
       </c>
       <c r="D4" t="n">
-        <v>353530.8414321568</v>
+        <v>353530.8414321567</v>
       </c>
       <c r="E4" t="n">
         <v>9320.000222152765</v>
@@ -26436,25 +26436,25 @@
         <v>9320.000222152765</v>
       </c>
       <c r="I4" t="n">
-        <v>10766.3648342005</v>
+        <v>10766.36483420045</v>
       </c>
       <c r="J4" t="n">
-        <v>10766.36483420051</v>
+        <v>10766.36483420048</v>
       </c>
       <c r="K4" t="n">
-        <v>10766.36483420051</v>
+        <v>10766.36483420045</v>
       </c>
       <c r="L4" t="n">
-        <v>10766.3648342005</v>
+        <v>10766.36483420052</v>
       </c>
       <c r="M4" t="n">
-        <v>9330.667735531284</v>
+        <v>9330.66773553128</v>
       </c>
       <c r="N4" t="n">
         <v>9330.667735531239</v>
       </c>
       <c r="O4" t="n">
-        <v>9330.667735531282</v>
+        <v>9330.667735531286</v>
       </c>
       <c r="P4" t="n">
         <v>9330.667735531239</v>
@@ -26485,7 +26485,7 @@
         <v>98532.69897678339</v>
       </c>
       <c r="H5" t="n">
-        <v>98532.69897678339</v>
+        <v>98532.69897678337</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26497,7 +26497,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79093.33199696505</v>
+        <v>79091.74012060715</v>
       </c>
       <c r="C6" t="n">
-        <v>84785.86275960729</v>
+        <v>84784.38350500194</v>
       </c>
       <c r="D6" t="n">
         <v>185262.1462729897</v>
       </c>
       <c r="E6" t="n">
-        <v>-694780.5958627701</v>
+        <v>-694845.2960008876</v>
       </c>
       <c r="F6" t="n">
-        <v>488518.5867640073</v>
+        <v>488453.8866258896</v>
       </c>
       <c r="G6" t="n">
-        <v>488518.5867640074</v>
+        <v>488453.8866258897</v>
       </c>
       <c r="H6" t="n">
-        <v>488518.5867640072</v>
+        <v>488453.8866258896</v>
       </c>
       <c r="I6" t="n">
-        <v>471844.4560466942</v>
+        <v>471808.5590648298</v>
       </c>
       <c r="J6" t="n">
-        <v>491516.7524354355</v>
+        <v>491480.8554535717</v>
       </c>
       <c r="K6" t="n">
-        <v>493315.8285474801</v>
+        <v>493279.9315656158</v>
       </c>
       <c r="L6" t="n">
-        <v>491474.8725910778</v>
+        <v>491438.9756092137</v>
       </c>
       <c r="M6" t="n">
-        <v>215283.2944376261</v>
+        <v>215237.3894420608</v>
       </c>
       <c r="N6" t="n">
-        <v>492537.0324791532</v>
+        <v>492491.1274835875</v>
       </c>
       <c r="O6" t="n">
-        <v>492537.0324791532</v>
+        <v>492491.1274835876</v>
       </c>
       <c r="P6" t="n">
-        <v>492537.0324791535</v>
+        <v>492491.1274835876</v>
       </c>
     </row>
   </sheetData>
@@ -26820,10 +26820,10 @@
         <v>1173.104351895088</v>
       </c>
       <c r="M4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
         <v>1160.145290326006</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.71141466259178</v>
+        <v>16.71141466259201</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,16 +27030,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.43802040806986</v>
+        <v>33.43802040807009</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.273889456369716</v>
+        <v>7.273889456369952</v>
       </c>
       <c r="M4" t="n">
         <v>1112.557334719856</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>151.5886593661015</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G3" t="n">
         <v>137.1148845028669</v>
       </c>
       <c r="H3" t="n">
-        <v>110.027334069493</v>
+        <v>103.1512883277816</v>
       </c>
       <c r="I3" t="n">
         <v>81.52485046677515</v>
@@ -27506,7 +27506,7 @@
         <v>79.08650797310204</v>
       </c>
       <c r="S3" t="n">
-        <v>160.5603739737251</v>
+        <v>167.4364197154366</v>
       </c>
       <c r="T3" t="n">
         <v>199.2431786296644</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.7755590926379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G4" t="n">
         <v>167.7993014162954</v>
@@ -27558,7 +27558,7 @@
         <v>149.6861964483834</v>
       </c>
       <c r="J4" t="n">
-        <v>79.80754960572669</v>
+        <v>72.93150386401526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>141.3886444753393</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.8120807345338</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2268414073004</v>
+        <v>107.1028871490119</v>
       </c>
       <c r="I6" t="n">
-        <v>64.22332410481989</v>
+        <v>71.09936984653133</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>60.28611260237955</v>
       </c>
       <c r="S6" t="n">
-        <v>161.8119725273177</v>
+        <v>154.9359267856063</v>
       </c>
       <c r="T6" t="n">
         <v>198.0226669494091</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5454409087627</v>
+        <v>161.4890198194633</v>
       </c>
       <c r="H7" t="n">
         <v>158.2659306546876</v>
@@ -27795,7 +27795,7 @@
         <v>142.0519186400358</v>
       </c>
       <c r="J7" t="n">
-        <v>54.98356598145195</v>
+        <v>61.85961172316338</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.97822787225439</v>
+        <v>48.85427361396582</v>
       </c>
       <c r="R7" t="n">
         <v>157.2603625390188</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>394.4127828192416</v>
+        <v>392.7261105436303</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>327.668665386239</v>
       </c>
       <c r="I8" t="n">
-        <v>151.8825430441047</v>
+        <v>166.0324782421858</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>63.30446419443213</v>
+        <v>63.30446419443212</v>
       </c>
       <c r="S8" t="n">
         <v>182.7505867863798</v>
       </c>
       <c r="T8" t="n">
-        <v>218.0494574212279</v>
+        <v>205.5861944987581</v>
       </c>
       <c r="U8" t="n">
         <v>251.2534287224722</v>
@@ -27941,10 +27941,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>132.605949470914</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>122.5767783480378</v>
+        <v>124.2634506236491</v>
       </c>
       <c r="H9" t="n">
         <v>92.12848463124099</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>237.5450479628385</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.6820449838561</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>153.0968859005467</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>132.284027448488</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>132.9577851004614</v>
       </c>
       <c r="G10" t="n">
-        <v>153.3239367275844</v>
+        <v>167.4738719256655</v>
       </c>
       <c r="H10" t="n">
-        <v>145.1663544097717</v>
+        <v>157.6296173322416</v>
       </c>
       <c r="I10" t="n">
         <v>139.8996441301673</v>
       </c>
       <c r="J10" t="n">
-        <v>56.79968461819139</v>
+        <v>42.64974942011023</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.86134722025398</v>
+        <v>28.71141202217281</v>
       </c>
       <c r="R10" t="n">
         <v>154.0423608081211</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-2.487575216560875e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -31051,7 +31051,7 @@
         <v>36.2676645176677</v>
       </c>
       <c r="K2" t="n">
-        <v>54.35582768982486</v>
+        <v>54.35582768982485</v>
       </c>
       <c r="L2" t="n">
         <v>67.43321072029745</v>
@@ -31063,7 +31063,7 @@
         <v>76.24654323685169</v>
       </c>
       <c r="O2" t="n">
-        <v>71.99744868114327</v>
+        <v>71.99744868114325</v>
       </c>
       <c r="P2" t="n">
         <v>61.44815672951015</v>
@@ -31124,7 +31124,7 @@
         <v>2.208110167003453</v>
       </c>
       <c r="I3" t="n">
-        <v>7.871782384639922</v>
+        <v>7.871782384639921</v>
       </c>
       <c r="J3" t="n">
         <v>21.60077252834759</v>
@@ -31133,7 +31133,7 @@
         <v>36.91916077137427</v>
       </c>
       <c r="L3" t="n">
-        <v>49.64236776453495</v>
+        <v>49.64236776453494</v>
       </c>
       <c r="M3" t="n">
         <v>57.93030170199339</v>
@@ -31142,22 +31142,22 @@
         <v>59.46354441105257</v>
       </c>
       <c r="O3" t="n">
-        <v>54.39752598975309</v>
+        <v>54.39752598975308</v>
       </c>
       <c r="P3" t="n">
         <v>43.65881037738254</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.18475853790577</v>
+        <v>29.18475853790576</v>
       </c>
       <c r="R3" t="n">
         <v>14.19528043782965</v>
       </c>
       <c r="S3" t="n">
-        <v>4.24675138840128</v>
+        <v>4.246751388401279</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9215500651572083</v>
+        <v>0.9215500651572082</v>
       </c>
       <c r="U3" t="n">
         <v>0.0150416223910317</v>
@@ -31203,10 +31203,10 @@
         <v>1.70419115850653</v>
       </c>
       <c r="I4" t="n">
-        <v>5.764278478874845</v>
+        <v>5.764278478874846</v>
       </c>
       <c r="J4" t="n">
-        <v>13.55163051094609</v>
+        <v>13.55163051094608</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -31224,7 +31224,7 @@
         <v>27.09280586141055</v>
       </c>
       <c r="P4" t="n">
-        <v>23.18257584127899</v>
+        <v>23.18257584127898</v>
       </c>
       <c r="Q4" t="n">
         <v>16.05041386605689</v>
@@ -31847,22 +31847,22 @@
         <v>626.4389012625762</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>731.0246505593177</v>
       </c>
       <c r="N12" t="n">
         <v>750.3726978278862</v>
       </c>
       <c r="O12" t="n">
-        <v>686.4444213067562</v>
+        <v>459.2303053167271</v>
       </c>
       <c r="P12" t="n">
-        <v>233.8978467798202</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>368.2835629198267</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>179.1307764119388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>53.58991509639447</v>
@@ -32078,7 +32078,7 @@
         <v>272.5809589354036</v>
       </c>
       <c r="K15" t="n">
-        <v>465.8842748769674</v>
+        <v>238.6701588869384</v>
       </c>
       <c r="L15" t="n">
         <v>626.4389012625762</v>
@@ -32090,7 +32090,7 @@
         <v>750.3726978278862</v>
       </c>
       <c r="O15" t="n">
-        <v>459.2303053167271</v>
+        <v>686.4444213067562</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32312,10 +32312,10 @@
         <v>99.33431723888947</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>272.5809589354035</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4134911556757</v>
+        <v>465.8842748769673</v>
       </c>
       <c r="L18" t="n">
         <v>626.4389012625761</v>
@@ -32327,7 +32327,7 @@
         <v>750.3726978278861</v>
       </c>
       <c r="O18" t="n">
-        <v>686.4444213067561</v>
+        <v>459.230305316728</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32549,10 +32549,10 @@
         <v>99.33431723888947</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>272.5809589354035</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>465.8842748769673</v>
       </c>
       <c r="L21" t="n">
         <v>626.4389012625761</v>
@@ -32564,10 +32564,10 @@
         <v>750.3726978278861</v>
       </c>
       <c r="O21" t="n">
-        <v>686.4444213067561</v>
+        <v>459.230305316728</v>
       </c>
       <c r="P21" t="n">
-        <v>380.5464595956471</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32780,31 +32780,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>147.6720980399086</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,10 +32813,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32871,16 +32871,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33017,43 +33017,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>151.1434552068903</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33099,7 +33099,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33108,16 +33108,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33129,7 +33129,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33254,43 +33254,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>139.4267020936828</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33336,7 +33336,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33345,16 +33345,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33366,7 +33366,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S32" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U32" t="n">
         <v>0.436756920190194</v>
@@ -33491,43 +33491,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>152.1929830599434</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U33" t="n">
         <v>0.1921756201013754</v>
@@ -33573,7 +33573,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J34" t="n">
         <v>173.1391022273333</v>
@@ -33582,16 +33582,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P34" t="n">
         <v>296.1865264282424</v>
@@ -33603,7 +33603,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>419.9237601200359</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>139.4267020936829</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34205,16 +34205,16 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>139.4267020936829</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504301</v>
@@ -34223,16 +34223,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.2575834086216</v>
@@ -34442,16 +34442,16 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>139.4267020936829</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504301</v>
@@ -34460,16 +34460,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.2575834086216</v>
@@ -34699,25 +34699,25 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.598225711743297</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34863,16 +34863,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>13.57822064462334</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>14.14993519808116</v>
       </c>
       <c r="N8" t="n">
-        <v>14.14993519808116</v>
+        <v>13.57822064462334</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>14.14993519808115</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.14993519808116</v>
+        <v>13.57822064462334</v>
       </c>
       <c r="L10" t="n">
         <v>14.14993519808116</v>
       </c>
       <c r="M10" t="n">
-        <v>13.57822064462334</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>487.884521482702</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>588.8906166372994</v>
       </c>
       <c r="N12" t="n">
         <v>619.0309857445529</v>
       </c>
       <c r="O12" t="n">
-        <v>543.8481768623118</v>
+        <v>316.6340608722826</v>
       </c>
       <c r="P12" t="n">
-        <v>99.92343936548993</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>228.3017888338052</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>33.45127244797487</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>145.7433322687369</v>
       </c>
       <c r="K15" t="n">
-        <v>328.0428359026084</v>
+        <v>100.8287199125794</v>
       </c>
       <c r="L15" t="n">
         <v>487.884521482702</v>
@@ -35738,7 +35738,7 @@
         <v>619.0309857445529</v>
       </c>
       <c r="O15" t="n">
-        <v>316.6340608722826</v>
+        <v>543.8481768623118</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>145.7433322687369</v>
       </c>
       <c r="K18" t="n">
-        <v>246.5720521813167</v>
+        <v>328.0428359026083</v>
       </c>
       <c r="L18" t="n">
         <v>487.8845214827019</v>
@@ -35975,7 +35975,7 @@
         <v>619.0309857445528</v>
       </c>
       <c r="O18" t="n">
-        <v>543.8481768623117</v>
+        <v>316.6340608722836</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>145.7433322687369</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>328.0428359026083</v>
       </c>
       <c r="L21" t="n">
         <v>487.8845214827019</v>
@@ -36212,10 +36212,10 @@
         <v>619.0309857445528</v>
       </c>
       <c r="O21" t="n">
-        <v>543.8481768623117</v>
+        <v>316.6340608722836</v>
       </c>
       <c r="P21" t="n">
-        <v>246.5720521813168</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>5.07585359546421</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36522,19 +36522,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>12.58907542701613</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36759,19 +36759,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.58907542701613</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36996,19 +36996,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209123</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671539</v>
       </c>
       <c r="L32" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M32" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>13.63860328006924</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K34" t="n">
         <v>262.2512393642057</v>
@@ -37233,19 +37233,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N34" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404127</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845857</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>277.7897261980176</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12.58907542701622</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,10 +37798,10 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404127</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845857</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.58907542701622</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284117</v>
@@ -37871,16 +37871,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.58907542701622</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284117</v>
@@ -38108,16 +38108,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
